--- a/BloodstreamAPI/testData/clientCode.xlsx
+++ b/BloodstreamAPI/testData/clientCode.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB4414-7CEE-4AD3-A8EC-7EBBF7C5908E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{34E8BC20-AA84-461B-B064-924F92B45353}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getAssays" sheetId="8" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="putClientSites" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
   <si>
     <t>EndPoint</t>
   </si>
@@ -408,7 +409,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,9 +449,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -461,18 +460,14 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -522,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB169F1-53FF-41E3-B017-C1DD1689979C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,9 +558,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -576,18 +569,14 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -638,7 +627,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,9 +667,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -691,18 +678,14 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -982,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B58CB45-E23F-4A4F-9C6B-BCED5E8044BA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BloodstreamAPI/testData/clientCode.xlsx
+++ b/BloodstreamAPI/testData/clientCode.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{34E8BC20-AA84-461B-B064-924F92B45353}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3359CE2C-672B-46D6-A621-28BF725725D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getAssays" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="putClientSites" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N25"/>
+  <oleSize ref="A1:N27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,22 +424,20 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -486,22 +484,20 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -517,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB169F1-53FF-41E3-B017-C1DD1689979C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,22 +529,20 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -595,22 +589,20 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -626,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E94795B-07F7-4F5F-BA6C-70D17F751F3E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,22 +634,20 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -667,65 +657,44 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -736,7 +705,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,22 +720,20 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -785,22 +752,20 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -819,22 +784,20 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -851,7 +814,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,22 +829,20 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -900,22 +861,20 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -934,22 +893,20 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -966,7 +923,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,22 +938,20 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1015,22 +970,20 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1049,22 +1002,20 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/BloodstreamAPI/testData/clientCode.xlsx
+++ b/BloodstreamAPI/testData/clientCode.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3359CE2C-672B-46D6-A621-28BF725725D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FBD5E7-B723-4E9F-806D-A93F0BCC3CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getAssays" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="putClientSites" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,13 +407,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C48DD-C9F7-4E07-93E4-989CB3728A5F}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -423,7 +422,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -431,7 +430,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -439,42 +438,42 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -483,7 +482,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -491,7 +490,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -517,9 +516,9 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -528,7 +527,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,7 +535,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -544,42 +543,42 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -588,7 +587,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -596,7 +595,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -616,15 +615,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E94795B-07F7-4F5F-BA6C-70D17F751F3E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -633,7 +632,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -641,7 +640,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -649,21 +648,21 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -672,7 +671,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -680,7 +679,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -688,9 +687,6 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -708,9 +704,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -719,7 +715,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -727,7 +723,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -735,14 +731,14 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -751,7 +747,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -759,7 +755,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -767,14 +763,14 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -783,7 +779,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -791,7 +787,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -817,9 +813,9 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -828,7 +824,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -836,7 +832,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -844,14 +840,14 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -860,7 +856,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -868,7 +864,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -876,14 +872,14 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -892,7 +888,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -900,7 +896,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -926,9 +922,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -937,7 +933,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -945,7 +941,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -953,14 +949,14 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -969,7 +965,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -977,7 +973,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -985,14 +981,14 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +997,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1005,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>

--- a/BloodstreamAPI/testData/clientCode.xlsx
+++ b/BloodstreamAPI/testData/clientCode.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FBD5E7-B723-4E9F-806D-A93F0BCC3CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9C1EF6A2-EE79-4FF9-A8F4-98FA1777CA53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getAssays" sheetId="8" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="putClientSites" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,12 +409,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -422,7 +423,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -430,7 +431,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -438,71 +439,52 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -510,15 +492,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB169F1-53FF-41E3-B017-C1DD1689979C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -527,7 +509,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -535,7 +517,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -543,71 +525,53 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -615,15 +579,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E94795B-07F7-4F5F-BA6C-70D17F751F3E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -632,7 +596,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -640,7 +604,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -648,21 +612,21 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -671,7 +635,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -679,7 +643,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -687,6 +651,9 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -704,9 +671,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -715,7 +682,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -723,7 +690,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -731,14 +698,14 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -747,7 +714,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -755,7 +722,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -763,14 +730,14 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -779,7 +746,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,7 +754,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -813,9 +780,9 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -824,7 +791,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -832,7 +799,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -840,14 +807,14 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -856,7 +823,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -864,7 +831,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -872,14 +839,14 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -888,7 +855,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -896,7 +863,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -922,9 +889,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -933,7 +900,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,7 +908,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -949,14 +916,14 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -965,7 +932,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -973,7 +940,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -981,14 +948,14 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -997,7 +964,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +972,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>

--- a/BloodstreamAPI/testData/clientCode.xlsx
+++ b/BloodstreamAPI/testData/clientCode.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9C1EF6A2-EE79-4FF9-A8F4-98FA1777CA53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{749473C6-C953-4A02-95AE-84D848A9F718}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getAssays" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="putClientSites" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O10"/>
+  <oleSize ref="A1:M27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,7 +103,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -119,6 +119,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -406,38 +438,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C48DD-C9F7-4E07-93E4-989CB3728A5F}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -453,39 +490,42 @@
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -495,27 +535,31 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -543,122 +587,100 @@
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E94795B-07F7-4F5F-BA6C-70D17F751F3E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -674,13 +696,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -706,13 +728,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -738,13 +760,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -783,13 +805,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -815,13 +837,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -847,13 +869,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -892,13 +914,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -924,13 +946,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -956,13 +978,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">

--- a/BloodstreamAPI/testData/clientCode.xlsx
+++ b/BloodstreamAPI/testData/clientCode.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{749473C6-C953-4A02-95AE-84D848A9F718}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78BA4E-AD1B-4497-A669-4341D80AFA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getAssays" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="putClientSites" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
   <si>
     <t>EndPoint</t>
   </si>
@@ -47,6 +46,9 @@
   </si>
   <si>
     <t>/configuration/clientCode/clientSites</t>
+  </si>
+  <si>
+    <t>Assert409</t>
   </si>
 </sst>
 </file>
@@ -438,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C48DD-C9F7-4E07-93E4-989CB3728A5F}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -517,14 +519,6 @@
       <c r="D8" s="12"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -532,7 +526,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB169F1-53FF-41E3-B017-C1DD1689979C}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -610,10 +604,6 @@
       <c r="D8" s="12"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -621,9 +611,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E94795B-07F7-4F5F-BA6C-70D17F751F3E}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -632,54 +622,42 @@
     <col min="1" max="1" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -687,10 +665,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDD8A9B-A86D-4451-AA0A-6B485F7CCB08}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,11 +762,39 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -796,10 +802,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADCA34D-4993-4197-B420-9E2D0548D35B}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,11 +899,39 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -905,10 +939,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B58CB45-E23F-4A4F-9C6B-BCED5E8044BA}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,11 +1036,39 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BloodstreamAPI/testData/clientCode.xlsx
+++ b/BloodstreamAPI/testData/clientCode.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78BA4E-AD1B-4497-A669-4341D80AFA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5148FFDF-CC4E-41AC-8A25-50395A476690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getAssays" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
   <si>
     <t>EndPoint</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Assert409</t>
+  </si>
+  <si>
+    <t>Assert500</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -145,6 +148,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -440,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C48DD-C9F7-4E07-93E4-989CB3728A5F}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +525,21 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -665,22 +687,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDD8A9B-A86D-4451-AA0A-6B485F7CCB08}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -706,13 +728,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -738,13 +760,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -763,13 +785,13 @@
       <c r="D11" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -789,12 +811,40 @@
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -802,22 +852,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADCA34D-4993-4197-B420-9E2D0548D35B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -843,13 +893,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -875,13 +925,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -900,13 +950,13 @@
       <c r="D11" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -926,12 +976,40 @@
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -939,22 +1017,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B58CB45-E23F-4A4F-9C6B-BCED5E8044BA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -980,13 +1058,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1012,13 +1090,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1037,13 +1115,13 @@
       <c r="D11" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1063,12 +1141,40 @@
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
